--- a/bots/crawl_ch/output/toilet_coop_2022-08-01.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-08-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O87"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
@@ -928,7 +928,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
@@ -1199,12 +1199,12 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Prix Garantie Toilettenpapier 3-lagig 10 Rollen 4.50 Schweizer Franken</t>
+          <t>Prix Garantie Toilettenpapier 3-lagig 10 Rollen - Online kein Bestand 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hakle feucht pflegend</t>
+          <t>Hakle feucht pflegend 4x  42ST</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>42ST</t>
+          <t>4x 42ST</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1559,12 +1559,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.08/1ST</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1589,12 +1589,12 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Hakle feucht pflegend 3.15 Schweizer Franken</t>
+          <t>Hakle feucht pflegend 4x  42ST 39% Aktion 7.65 Schweizer Franken statt 12.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
@@ -1740,7 +1740,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
@@ -1943,179 +1943,163 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6002773</t>
+          <t>6486280</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Klassisch blau 3-lagig 30 Rollen</t>
+          <t>Prix Garantie Taschentücher 30x10 Stück</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-klassisch-blau-3-lagig-30-rollen/p/6002773</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/prix-garantie-taschentuecher-30x10-stueck/p/6486280</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>30Rol</t>
+          <t>30ST</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hakle</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>17.50</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.58/1Rol</t>
+          <t>0.09/1ST</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Klassisch blau 3-lagig 30 Rollen 36% Aktion 17.50 Schweizer Franken statt 27.35 Schweizer Franken</t>
+          <t>Prix Garantie Taschentücher 30x10 Stück 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6486280</t>
+          <t>3877762</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Prix Garantie Taschentücher 30x10 Stück</t>
+          <t>Plenty Haushaltpapier White 16 Rollen</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/prix-garantie-taschentuecher-30x10-stueck/p/6486280</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/plenty-haushaltpapier-white-16-rollen/p/3877762</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>30ST</t>
+          <t>720BLT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="F24" t="n">
         <v>4.5</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Plenty</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>0.09/1ST</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Prix Garantie Taschentücher 30x10 Stück 2.80 Schweizer Franken</t>
+          <t>Plenty Haushaltpapier White 16 Rollen 26.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3877762</t>
+          <t>3877759</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Plenty Haushaltpapier White 16 Rollen</t>
+          <t>Plenty Original 4x45 Blatt</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/plenty-haushaltpapier-white-16-rollen/p/3877762</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/plenty-original-4x45-blatt/p/3877759</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>720BLT</t>
+          <t>180BLT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="F25" t="n">
         <v>4.5</v>
@@ -2127,7 +2111,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>26.80</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -2141,185 +2125,201 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Plenty Haushaltpapier White 16 Rollen 26.80 Schweizer Franken</t>
+          <t>Plenty Original 4x45 Blatt 6.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3877759</t>
+          <t>6497247</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Plenty Original 4x45 Blatt</t>
+          <t>Super Soft WC-Papier Deluxe 5-lagig 6 Rollen</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/plenty-original-4x45-blatt/p/3877759</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/super-soft-wc-papier-deluxe-5-lagig-6-rollen/p/6497247</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>180BLT</t>
+          <t>6Rol</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Plenty</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0.90/1Rol</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Rolle</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>1Rol</t>
+        </is>
+      </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Plenty Original 4x45 Blatt 6.70 Schweizer Franken</t>
+          <t>Super Soft WC-Papier Deluxe 5-lagig 6 Rollen 5.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6497247</t>
+          <t>6478565</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Super Soft WC-Papier Deluxe 5-lagig 6 Rollen</t>
+          <t>Super Silk Soft mit Baumwolle Box</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/super-soft-wc-papier-deluxe-5-lagig-6-rollen/p/6497247</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher-box/super-silk-soft-mit-baumwolle-box/p/6478565</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6Rol</t>
+          <t>80ST</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>Super Silk</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.90/1Rol</t>
+          <t>0.03/1ST</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher-box']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Super Soft WC-Papier Deluxe 5-lagig 6 Rollen 5.40 Schweizer Franken</t>
+          <t>Super Silk Soft mit Baumwolle Box 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6478565</t>
+          <t>6865138</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Super Silk Soft mit Baumwolle Box</t>
+          <t>Kleenex Balsam Box</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher-box/super-silk-soft-mit-baumwolle-box/p/6478565</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/kleenex-balsam-box/p/6865138</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>80ST</t>
+          <t>56ST</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Super Silk</t>
+          <t>Kleenex</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.03/1ST</t>
+          <t>0.04/1ST</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2339,60 +2339,60 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher-box']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Super Silk Soft mit Baumwolle Box 2.10 Schweizer Franken</t>
+          <t>Kleenex Balsam Box 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6865138</t>
+          <t>5985680</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Kleenex Balsam Box</t>
+          <t>Tempo feucht Kamille sanft &amp;amp; pflegend</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/kleenex-balsam-box/p/6865138</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feucht-kamille-sanft-pflegend/p/5985680</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>56ST</t>
+          <t>42ST</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F29" t="n">
         <v>5</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Kleenex</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.04/1ST</t>
+          <t>0.08/1ST</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2402,7 +2402,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2412,46 +2412,46 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Kleenex Balsam Box 2.50 Schweizer Franken</t>
+          <t>Tempo feucht Kamille sanft &amp;amp; pflegend 3.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5985680</t>
+          <t>4489513</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tempo feucht Kamille sanft &amp;amp; pflegend</t>
+          <t>Tempo Toilettenpapier white 3-lagig 32 Rollen</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feucht-kamille-sanft-pflegend/p/5985680</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-white-3-lagig-32-rollen/p/4489513</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>42ST</t>
+          <t>32Rol</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2460,42 +2460,42 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.08/1ST</t>
+          <t>0.97/1Rol</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Tempo feucht Kamille sanft &amp;amp; pflegend 3.45 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier white 3-lagig 32 Rollen 31.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
@@ -2568,36 +2568,36 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4489513</t>
+          <t>6818702</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier white 3-lagig 32 Rollen</t>
+          <t>Tempo Box Taschentücher 3x100 Stück</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-white-3-lagig-32-rollen/p/4489513</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-box-taschentuecher-3x100-stueck/p/6818702</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>32Rol</t>
+          <t>300ST</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2606,85 +2606,85 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>31.00</t>
+          <t>11.85</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0.97/1Rol</t>
+          <t>0.04/1ST</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier white 3-lagig 32 Rollen 31.00 Schweizer Franken</t>
+          <t>Tempo Box Taschentücher 3x100 Stück 11.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6818702</t>
+          <t>4259692</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tempo Box Taschentücher 3x100 Stück</t>
+          <t>Oecoplan Taschentücher 15x10 Stück</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-box-taschentuecher-3x100-stueck/p/6818702</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/oecoplan-taschentuecher-15x10-stueck/p/4259692</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>300ST</t>
+          <t>15ST</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>11.85</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.04/1ST</t>
+          <t>0.15/1ST</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2704,60 +2704,60 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Tempo Box Taschentücher 3x100 Stück 11.85 Schweizer Franken</t>
+          <t>Oecoplan Taschentücher 15x10 Stück 2.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4259692</t>
+          <t>6691405</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Oecoplan Taschentücher 15x10 Stück</t>
+          <t>Super Soft Sensitive feucht FSC</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/oecoplan-taschentuecher-15x10-stueck/p/4259692</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-sensitive-feucht-fsc/p/6691405</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>15ST</t>
+          <t>60ST</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F34" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0.15/1ST</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2777,389 +2777,389 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Oecoplan Taschentücher 15x10 Stück 2.30 Schweizer Franken</t>
+          <t>Super Soft Sensitive feucht FSC 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6691405</t>
+          <t>6995914</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Super Soft Sensitive feucht FSC</t>
+          <t>Tela Futura FSC 3-lagig 30 Rollen</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-sensitive-feucht-fsc/p/6691405</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-futura-fsc-3-lagig-30-rollen/p/6995914</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>60ST</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>26</v>
-      </c>
+          <t>30Rol</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0.05/1ST</t>
+          <t>0.93/1Rol</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Super Soft Sensitive feucht FSC 3.20 Schweizer Franken</t>
+          <t>Tela Futura FSC 3-lagig 30 Rollen 28.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4125540</t>
+          <t>6870055</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Plenty Haushaltpapier White Extra Long 2 Rollen</t>
+          <t>Kleenex Original Twin Pack</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/plenty-haushaltpapier-white-extra-long-2-rollen/p/4125540</t>
+          <t>/de/kosmetik-gesundheit/gesichtspflege/kosmetiktuecher-watte/kosmetiktuecher/kleenex-original-twin-pack/p/6870055</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>144BLT</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>11</v>
-      </c>
+          <t>144ST</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Plenty</t>
+          <t>Kleenex</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2.50/100ST</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Stück</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>100ST</t>
+        </is>
+      </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['kosmetik-gesundheit', 'gesichtspflege', 'kosmetiktuecher-watte', 'kosmetiktuecher']</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Plenty Haushaltpapier White Extra Long 2 Rollen 6.70 Schweizer Franken</t>
+          <t>Kleenex Original Twin Pack 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6995914</t>
+          <t>4125540</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tela Futura FSC 3-lagig 30 Rollen</t>
+          <t>Plenty Haushaltpapier White Extra Long 2 Rollen</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-futura-fsc-3-lagig-30-rollen/p/6995914</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/plenty-haushaltpapier-white-extra-long-2-rollen/p/4125540</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>30Rol</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
+          <t>144BLT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>11</v>
+      </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Plenty</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>28.00</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>0.93/1Rol</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Rolle</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>1Rol</t>
-        </is>
-      </c>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Tela Futura FSC 3-lagig 30 Rollen 28.00 Schweizer Franken</t>
+          <t>Plenty Haushaltpapier White Extra Long 2 Rollen 6.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6870055</t>
+          <t>6716039</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Kleenex Original Twin Pack</t>
+          <t>Oecoplan Haushaltpapier Grasfasern 2 Rollen</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/gesichtspflege/kosmetiktuecher-watte/kosmetiktuecher/kleenex-original-twin-pack/p/6870055</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/oecoplan-haushaltpapier-grasfasern-2-rollen/p/6716039</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>144ST</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>102BLT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>8</v>
+      </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Kleenex</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>2.50/100ST</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Stück</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>100ST</t>
-        </is>
-      </c>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'gesichtspflege', 'kosmetiktuecher-watte', 'kosmetiktuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Kleenex Original Twin Pack 3.60 Schweizer Franken</t>
+          <t>Oecoplan Haushaltpapier Grasfasern 2 Rollen 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6716039</t>
+          <t>3741321</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Oecoplan Haushaltpapier Grasfasern 2 Rollen</t>
+          <t>Hakle Feuchttücher Sensitive</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/oecoplan-haushaltpapier-grasfasern-2-rollen/p/6716039</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/hakle-feuchttuecher-sensitive/p/3741321</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>102BLT</t>
+          <t>42ST</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F39" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Hakle</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0.08/1ST</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Oecoplan Haushaltpapier Grasfasern 2 Rollen 2.95 Schweizer Franken</t>
+          <t>Hakle Feuchttücher Sensitive 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3741321</t>
+          <t>3181740</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Hakle Feuchttücher Sensitive</t>
+          <t>Tempo Taschentücher 30x10 Stück</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/hakle-feuchttuecher-sensitive/p/3741321</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/tempo-taschentuecher-30x10-stueck/p/3181740</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>42ST</t>
+          <t>30ST</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F40" t="n">
         <v>5</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hakle</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0.08/1ST</t>
+          <t>0.26/1ST</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3179,60 +3179,60 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Hakle Feuchttücher Sensitive 3.20 Schweizer Franken</t>
+          <t>Tempo Taschentücher 30x10 Stück 7.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3181740</t>
+          <t>5721736</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher 30x10 Stück</t>
+          <t>Super Silk Taschentücher Würfelbox</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/tempo-taschentuecher-30x10-stueck/p/3181740</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/super-silk-taschentuecher-wuerfelbox/p/5721736</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>30ST</t>
+          <t>60ST</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Super Silk</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.26/1ST</t>
+          <t>0.04/1ST</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3242,7 +3242,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3257,50 +3257,50 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher 30x10 Stück 7.90 Schweizer Franken</t>
+          <t>Super Silk Taschentücher Würfelbox 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5721736</t>
+          <t>6029428</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Super Silk Taschentücher Würfelbox</t>
+          <t>My Baby Sensitive Feuchttücher 72 Stück</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/super-silk-taschentuecher-wuerfelbox/p/5721736</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/my-baby-sensitive-feuchttuecher-72-stueck/p/6029428</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>60ST</t>
+          <t>72ST</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Super Silk</t>
+          <t>My Baby</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3325,60 +3325,60 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Super Silk Taschentücher Würfelbox 2.10 Schweizer Franken</t>
+          <t>My Baby Sensitive Feuchttücher 72 Stück 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6029428</t>
+          <t>5985672</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>My Baby Sensitive Feuchttücher 72 Stück</t>
+          <t>Tempo feucht sanft &amp;amp; pur</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/my-baby-sensitive-feuchttuecher-72-stueck/p/6029428</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feucht-sanft-pur/p/5985672</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>72ST</t>
+          <t>42ST</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F43" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>My Baby</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0.04/1ST</t>
+          <t>0.08/1ST</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3403,55 +3403,55 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>My Baby Sensitive Feuchttücher 72 Stück 2.95 Schweizer Franken</t>
+          <t>Tempo feucht sanft &amp;amp; pur 3.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5985672</t>
+          <t>6691402</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Tempo feucht sanft &amp;amp; pur</t>
+          <t>Super Soft Camomille feucht FSC</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feucht-sanft-pur/p/5985672</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-camomille-feucht-fsc/p/6691402</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>42ST</t>
+          <t>60ST</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>0.08/1ST</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3476,50 +3476,48 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Tempo feucht sanft &amp;amp; pur 3.45 Schweizer Franken</t>
+          <t>Super Soft Camomille feucht FSC 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6691402</t>
+          <t>6870056</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Super Soft Camomille feucht FSC</t>
+          <t>Kleenex Ultrasoft</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-camomille-feucht-fsc/p/6691402</t>
+          <t>/de/kosmetik-gesundheit/gesichtspflege/kosmetiktuecher-watte/kosmetiktuecher/kleenex-ultrasoft/p/6870056</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>60ST</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>12</v>
-      </c>
+          <t>48ST</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>Kleenex</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3544,58 +3542,60 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['kosmetik-gesundheit', 'gesichtspflege', 'kosmetiktuecher-watte', 'kosmetiktuecher']</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Super Soft Camomille feucht FSC 3.20 Schweizer Franken</t>
+          <t>Kleenex Ultrasoft 2.35 Schweizer Franken</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6870056</t>
+          <t>6568330</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Kleenex Ultrasoft</t>
+          <t>Super Soft Premium 99% Water</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/gesichtspflege/kosmetiktuecher-watte/kosmetiktuecher/kleenex-ultrasoft/p/6870056</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-premium-99-water/p/6568330</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>48ST</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+          <t>50ST</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>5</v>
+      </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Kleenex</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>0.05/1ST</t>
+          <t>0.06/1ST</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3605,7 +3605,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3615,128 +3615,112 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'gesichtspflege', 'kosmetiktuecher-watte', 'kosmetiktuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Kleenex Ultrasoft 2.35 Schweizer Franken</t>
+          <t>Super Soft Premium 99% Water 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6568330</t>
+          <t>4125542</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Super Soft Premium 99% Water</t>
+          <t>Plenty Haushaltpapier White Short &amp;amp; Smart 4 Rollen</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-premium-99-water/p/6568330</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/plenty-haushaltpapier-white-short-smart-4-rollen/p/4125542</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>50ST</t>
+          <t>296BLT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F47" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>Plenty</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>0.06/1ST</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Super Soft Premium 99% Water 2.95 Schweizer Franken</t>
+          <t>Plenty Haushaltpapier White Short &amp;amp; Smart 4 Rollen 6.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4125542</t>
+          <t>6498160</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Plenty Haushaltpapier White Short &amp;amp; Smart 4 Rollen</t>
+          <t>subito Haushaltspapier weiss 8 Rollen</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/plenty-haushaltpapier-white-short-smart-4-rollen/p/4125542</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-weiss-8-rollen/p/6498160</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>296BLT</t>
+          <t>400BLT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
         <v>4.5</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Plenty</t>
+          <t>subito</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -3750,50 +3734,50 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Plenty Haushaltpapier White Short &amp;amp; Smart 4 Rollen 6.70 Schweizer Franken</t>
+          <t>subito Haushaltspapier weiss 8 Rollen 10.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6498160</t>
+          <t>6286107</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier weiss 8 Rollen</t>
+          <t>Oecoplan Haushaltpapier decor &amp;amp; short, 2 Rollen 3-lagig</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-weiss-8-rollen/p/6498160</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/oecoplan-haushaltpapier-decor-short-2-rollen-3-lagig/p/6286107</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>400BLT</t>
+          <t>200BLT</t>
         </is>
       </c>
       <c r="E49" t="n">
+        <v>14</v>
+      </c>
+      <c r="F49" t="n">
         <v>3</v>
       </c>
-      <c r="F49" t="n">
-        <v>4.5</v>
-      </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>subito</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>10.95</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -3807,41 +3791,41 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier weiss 8 Rollen 10.95 Schweizer Franken</t>
+          <t>Oecoplan Haushaltpapier decor &amp;amp; short, 2 Rollen 3-lagig 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6286107</t>
+          <t>6283674</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Oecoplan Haushaltpapier decor &amp;amp; short, 2 Rollen 3-lagig</t>
+          <t>Oecoplan Toilettenpapier Goldmelisse blau 3-lagig 12 Rollen</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/oecoplan-haushaltpapier-decor-short-2-rollen-3-lagig/p/6286107</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/oecoplan-toilettenpapier-goldmelisse-blau-3-lagig-12-rollen/p/6283674</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>200BLT</t>
+          <t>12Rol</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3850,142 +3834,158 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>0.63/1Rol</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Rolle</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>1Rol</t>
+        </is>
+      </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Oecoplan Haushaltpapier decor &amp;amp; short, 2 Rollen 3-lagig 2.50 Schweizer Franken</t>
+          <t>Oecoplan Toilettenpapier Goldmelisse blau 3-lagig 12 Rollen 7.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6283674</t>
+          <t>6568452</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Oecoplan Toilettenpapier Goldmelisse blau 3-lagig 12 Rollen</t>
+          <t>Super Soft Premium Mandel feucht</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/oecoplan-toilettenpapier-goldmelisse-blau-3-lagig-12-rollen/p/6283674</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-premium-mandel-feucht/p/6568452</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>12Rol</t>
+          <t>50ST</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F51" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>0.63/1Rol</t>
+          <t>0.06/1ST</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Oecoplan Toilettenpapier Goldmelisse blau 3-lagig 12 Rollen 7.50 Schweizer Franken</t>
+          <t>Super Soft Premium Mandel feucht 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6568452</t>
+          <t>3373453</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Super Soft Premium Mandel feucht</t>
+          <t>Hakle feucht klassisch 4x  42ST</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-premium-mandel-feucht/p/6568452</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/hakle-feucht-klassisch/p/3373453</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>50ST</t>
+          <t>4x 42ST</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F52" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>Hakle</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>0.06/1ST</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4010,128 +4010,128 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Super Soft Premium Mandel feucht 2.95 Schweizer Franken</t>
+          <t>Hakle feucht klassisch 4x  42ST 40% Aktion 7.65 Schweizer Franken statt 12.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3373453</t>
+          <t>6283679</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Hakle feucht klassisch</t>
+          <t>Oecoplan Toilettenpapier Camomille weiss 4-lagig 6 Rollen</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/hakle-feucht-klassisch/p/3373453</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/oecoplan-toilettenpapier-camomille-weiss-4-lagig-6-rollen/p/6283679</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>42ST</t>
+          <t>6Rol</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F53" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hakle</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>0.08/1ST</t>
+          <t>0.70/1Rol</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Hakle feucht klassisch 3.20 Schweizer Franken</t>
+          <t>Oecoplan Toilettenpapier Camomille weiss 4-lagig 6 Rollen 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6283679</t>
+          <t>6497243</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Oecoplan Toilettenpapier Camomille weiss 4-lagig 6 Rollen</t>
+          <t>Super Soft WC-Papier Sensation 3-lagig 16 Rollen</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/oecoplan-toilettenpapier-camomille-weiss-4-lagig-6-rollen/p/6283679</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/super-soft-wc-papier-sensation-3-lagig-16-rollen/p/6497243</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>6Rol</t>
+          <t>16Rol</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F54" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>0.70/1Rol</t>
+          <t>0.81/1Rol</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4156,29 +4156,29 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Oecoplan Toilettenpapier Camomille weiss 4-lagig 6 Rollen 4.20 Schweizer Franken</t>
+          <t>Super Soft WC-Papier Sensation 3-lagig 16 Rollen 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6497243</t>
+          <t>6346771</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Super Soft WC-Papier Sensation 3-lagig 16 Rollen</t>
+          <t>Tempo Toilettenpapier Premium 4-lagig 16 Rollen</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/super-soft-wc-papier-sensation-3-lagig-16-rollen/p/6497243</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-4-lagig-16-rollen/p/6346771</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4187,24 +4187,24 @@
         </is>
       </c>
       <c r="E55" t="n">
+        <v>7</v>
+      </c>
+      <c r="F55" t="n">
         <v>4</v>
       </c>
-      <c r="F55" t="n">
-        <v>3.5</v>
-      </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>15.50</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0.81/1Rol</t>
+          <t>0.97/1Rol</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4214,7 +4214,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4229,55 +4229,55 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Super Soft WC-Papier Sensation 3-lagig 16 Rollen 12.95 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier Premium 4-lagig 16 Rollen 15.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6346771</t>
+          <t>6497242</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium 4-lagig 16 Rollen</t>
+          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-4-lagig-16-rollen/p/6346771</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/super-soft-wc-papier-sensation-4-rollen-3-lagig/p/6497242</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>16Rol</t>
+          <t>4Rol</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F56" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>15.50</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>0.97/1Rol</t>
+          <t>0.81/1Rol</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4302,128 +4302,128 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium 4-lagig 16 Rollen 15.50 Schweizer Franken</t>
+          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6497242</t>
+          <t>4947421</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig</t>
+          <t>Oecoplan Taschentuch Calendula Box 3x  80ST</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/super-soft-wc-papier-sensation-4-rollen-3-lagig/p/6497242</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/oecoplan-taschentuch-calendula-box/p/4947421</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4Rol</t>
+          <t>3x 80ST</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F57" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>0.81/1Rol</t>
+          <t>0.02/1ST</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig 3.25 Schweizer Franken</t>
+          <t>Oecoplan Taschentuch Calendula Box 3x  80ST 20% Aktion 5.50 Schweizer Franken statt 6.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>4947421</t>
+          <t>6691348</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Oecoplan Taschentuch Calendula Box</t>
+          <t>Super Soft Aloe Vera feucht FSC</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/oecoplan-taschentuch-calendula-box/p/4947421</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-aloe-vera-feucht-fsc/p/6691348</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>80ST</t>
+          <t>60ST</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>0.03/1ST</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4443,60 +4443,60 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Oecoplan Taschentuch Calendula Box 2.30 Schweizer Franken</t>
+          <t>Super Soft Aloe Vera feucht FSC 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6691348</t>
+          <t>6695141</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Super Soft Aloe Vera feucht FSC</t>
+          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-aloe-vera-feucht-fsc/p/6691348</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/prix-garantie-feuchtes-toilettenpapier-2x70-stueck/p/6695141</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>60ST</t>
+          <t>140ST</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>0.05/1ST</t>
+          <t>0.02/1ST</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4506,7 +4506,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4521,55 +4521,55 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Super Soft Aloe Vera feucht FSC 2.95 Schweizer Franken</t>
+          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6695141</t>
+          <t>6724076</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück</t>
+          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/prix-garantie-feuchtes-toilettenpapier-2x70-stueck/p/6695141</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/oecoplan-feuchtes-toilettenpapier-duckies-natural-40-stueck/p/6724076</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>140ST</t>
+          <t>40ST</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F60" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Duckies</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>0.02/1ST</t>
+          <t>0.07/1ST</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4594,286 +4594,268 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück 2.50 Schweizer Franken</t>
+          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6724076</t>
+          <t>6498681</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück</t>
+          <t>subito Haushaltspapier decor 4 Rollen</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/oecoplan-feuchtes-toilettenpapier-duckies-natural-40-stueck/p/6724076</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-decor-4-rollen/p/6498681</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>40ST</t>
+          <t>200BLT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Duckies</t>
+          <t>subito</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>0.07/1ST</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück 2.95 Schweizer Franken</t>
+          <t>subito Haushaltspapier decor 4 Rollen 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6498681</t>
+          <t>6873015</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier decor 4 Rollen</t>
+          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-decor-4-rollen/p/6498681</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-sagenhafte-sauberkeit-3-lagig-12-rollen/p/6873015</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>200BLT</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>1</v>
-      </c>
+          <t>12Rol</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>subito</t>
+          <t>Hakle</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>0.91/1Rol</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Rolle</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>1Rol</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier decor 4 Rollen 5.50 Schweizer Franken</t>
+          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen 10.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6873015</t>
+          <t>6711017</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen</t>
+          <t>Tempo feuchte Limited Edition</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-sagenhafte-sauberkeit-3-lagig-12-rollen/p/6873015</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feuchte-limited-edition/p/6711017</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>12Rol</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
+          <t>42ST</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>2</v>
+      </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hakle</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>10.95</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0.91/1Rol</t>
+          <t>0.08/1ST</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen 10.95 Schweizer Franken</t>
+          <t>Tempo feuchte Limited Edition 3.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6711017</t>
+          <t>6498679</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Tempo feuchte Limited Edition</t>
+          <t>Subito Haushaltspapier decor 12 Rollen</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feuchte-limited-edition/p/6711017</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-decor-12-rollen/p/6498679</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>42ST</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>2</v>
-      </c>
+          <t>600BLT</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>subito</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>0.08/1ST</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>16.50</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Tempo feuchte Limited Edition 3.45 Schweizer Franken</t>
+          <t>Subito Haushaltspapier decor 12 Rollen 16.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
@@ -4946,7 +4928,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
@@ -5019,43 +5001,45 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6498679</t>
+          <t>6834305</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Subito Haushaltspapier decor 12 Rollen</t>
+          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-decor-12-rollen/p/6498679</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/zewa-wisch-weg-haushaltspapier-weiss-4-rollen/p/6834305</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>600BLT</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
+          <t>192BLT</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>subito</t>
+          <t>Zewa</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>16.50</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -5069,178 +5053,178 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Subito Haushaltspapier decor 12 Rollen 16.50 Schweizer Franken</t>
+          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6834305</t>
+          <t>3180824</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen</t>
+          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/zewa-wisch-weg-haushaltspapier-weiss-4-rollen/p/6834305</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/tempo-taschentuecher-plus-aloe-kamille-12x9-stueck/p/3180824</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>192BLT</t>
+          <t>12ST</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Zewa</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>0.33/1ST</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen 5.50 Schweizer Franken</t>
+          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3180824</t>
+          <t>6498157</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück</t>
+          <t>subito Haushaltspapier weiss 2 Rollen</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/tempo-taschentuecher-plus-aloe-kamille-12x9-stueck/p/3180824</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-weiss-2-rollen/p/6498157</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>7</v>
-      </c>
+          <t>100BLT</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
       <c r="F69" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>subito</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>0.33/1ST</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück 3.95 Schweizer Franken</t>
+          <t>subito Haushaltspapier weiss 2 Rollen 2.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6498157</t>
+          <t>6433417</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier weiss 2 Rollen</t>
+          <t>Plenty Fun Design extra Long</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-weiss-2-rollen/p/6498157</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/plenty-fun-design-extra-long/p/6433417</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>100BLT</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
+          <t>144BLT</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>6</v>
+      </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>subito</t>
+          <t>Plenty</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -5254,142 +5238,142 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier weiss 2 Rollen 2.75 Schweizer Franken</t>
+          <t>Plenty Fun Design extra Long 6.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6433417</t>
+          <t>3640534</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Plenty Fun Design extra Long</t>
+          <t>Kandoo Feuchttücher Sensitive 50 Stück</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/plenty-fun-design-extra-long/p/6433417</t>
+          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-sensitive-50-stueck/p/3640534</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>144BLT</t>
+          <t>50ST</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Plenty</t>
+          <t>Kandoo</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>0.08/1ST</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['kosmetik-gesundheit', 'baby-kind', 'pflege-accessoires', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Plenty Fun Design extra Long 6.70 Schweizer Franken</t>
+          <t>Kandoo Feuchttücher Sensitive 50 Stück 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3640534</t>
+          <t>6638996</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Sensitive 50 Stück</t>
+          <t>Oecoplan Allzweck Papiertücher</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-sensitive-50-stueck/p/3640534</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/oecoplan-allzweck-papiertuecher/p/6638996</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>50ST</t>
+          <t>176BLT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
         <v>5</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Kandoo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>0.08/1ST</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'baby-kind', 'pflege-accessoires', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Sensitive 50 Stück 3.75 Schweizer Franken</t>
+          <t>Oecoplan Allzweck Papiertücher 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
@@ -5462,180 +5446,196 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6638996</t>
+          <t>4489511</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Oecoplan Allzweck Papiertücher</t>
+          <t>Tempo Toilettenpapier weiss 3-lagig 16 Rollen</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/oecoplan-allzweck-papiertuecher/p/6638996</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-weiss-3-lagig-16-rollen/p/4489511</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>176BLT</t>
+          <t>16Rol</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>0.97/1Rol</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Rolle</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>1Rol</t>
+        </is>
+      </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Oecoplan Allzweck Papiertücher 2.95 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier weiss 3-lagig 16 Rollen 15.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>4489511</t>
+          <t>6149220</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier weiss 3-lagig 16 Rollen</t>
+          <t>Naturaline Baby Feuchttücher 72 Stk.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-weiss-3-lagig-16-rollen/p/4489511</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/naturaline-baby-feuchttuecher-72-stk/p/6149220</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>16Rol</t>
+          <t>72ST</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>15.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>0.97/1Rol</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier weiss 3-lagig 16 Rollen 15.50 Schweizer Franken</t>
+          <t>Naturaline Baby Feuchttücher 72 Stk. 25% ab 2 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6149220</t>
+          <t>3630714</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Naturaline Baby Feuchttücher 72 Stk.</t>
+          <t>Kandoo Feuchttücher Melone 55 Stück</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/naturaline-baby-feuchttuecher-72-stk/p/6149220</t>
+          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-melone-55-stueck/p/3630714</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>72ST</t>
+          <t>55ST</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F76" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Kandoo</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>0.05/1ST</t>
+          <t>0.07/1ST</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5655,60 +5655,60 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['kosmetik-gesundheit', 'baby-kind', 'pflege-accessoires', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Naturaline Baby Feuchttücher 72 Stk. 25% ab 2 Aktion 3.95 Schweizer Franken</t>
+          <t>Kandoo Feuchttücher Melone 55 Stück 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>3630714</t>
+          <t>6577910</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Melone 55 Stück</t>
+          <t>Naturaline Kids feuchtes Toilettenpapier</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-melone-55-stueck/p/3630714</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/naturaline-kids-feuchtes-toilettenpapier/p/6577910</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>55ST</t>
+          <t>50ST</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Kandoo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>0.07/1ST</t>
+          <t>0.06/1ST</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5718,7 +5718,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -5728,60 +5728,60 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'baby-kind', 'pflege-accessoires', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Melone 55 Stück 3.75 Schweizer Franken</t>
+          <t>Naturaline Kids feuchtes Toilettenpapier 25% ab 2 Aktion 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6577910</t>
+          <t>6866582</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Naturaline Kids feuchtes Toilettenpapier</t>
+          <t>Tempo Bamboo Eco Box</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/naturaline-kids-feuchtes-toilettenpapier/p/6577910</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco-box/p/6866582</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>50ST</t>
+          <t>90ST</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>0.06/1ST</t>
+          <t>0.04/1ST</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5791,7 +5791,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -5801,39 +5801,39 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Naturaline Kids feuchtes Toilettenpapier 25% ab 2 Aktion 2.95 Schweizer Franken</t>
+          <t>Tempo Bamboo Eco Box 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6866582</t>
+          <t>4687972</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco Box</t>
+          <t>Taschentücher Strong 10x10 Stück</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco-box/p/6866582</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/taschentuecher-strong-10x10-stueck/p/4687972</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>90ST</t>
+          <t>10ST</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -5844,17 +5844,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Super Silk</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>0.04/1ST</t>
+          <t>0.18/1ST</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -5874,60 +5874,60 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco Box 3.95 Schweizer Franken</t>
+          <t>Taschentücher Strong 10x10 Stück 1.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>4687972</t>
+          <t>6800946</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Taschentücher Strong 10x10 Stück</t>
+          <t>Hipp Natural zart duftend 3x48 Stück</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/taschentuecher-strong-10x10-stueck/p/4687972</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/hipp-natural-zart-duftend-3x48-stueck/p/6800946</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>10ST</t>
+          <t>144ST</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
         <v>5</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Super Silk</t>
+          <t>Hipp</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>0.18/1ST</t>
+          <t>0.07/1ST</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5947,60 +5947,60 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Taschentücher Strong 10x10 Stück 1.80 Schweizer Franken</t>
+          <t>Hipp Natural zart duftend 3x48 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6800946</t>
+          <t>6868354</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Hipp Natural zart duftend 3x48 Stück</t>
+          <t>Tempo Bamboo Eco</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/hipp-natural-zart-duftend-3x48-stueck/p/6800946</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco/p/6868354</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>144ST</t>
+          <t>12ST</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Hipp</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>0.07/1ST</t>
+          <t>0.33/1ST</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -6010,7 +6010,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6020,433 +6020,360 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Hipp Natural zart duftend 3x48 Stück 9.95 Schweizer Franken</t>
+          <t>Tempo Bamboo Eco 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6868354</t>
+          <t>6996030</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco</t>
+          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco/p/6868354</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-3-lagig-4-rollen/p/6996030</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>1</v>
-      </c>
+          <t>200BLT</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
       <c r="F82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>0.33/1ST</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco 3.95 Schweizer Franken</t>
+          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6996030</t>
+          <t>6636712</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen</t>
+          <t>Pampers Coconut Pure 42 Feuchttücher</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-3-lagig-4-rollen/p/6996030</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/pampers-coconut-pure-42-feuchttuecher/p/6636712</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>200BLT</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
+          <t>42ST</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>2</v>
+      </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>0.12/1ST</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen 5.95 Schweizer Franken</t>
+          <t>Pampers Coconut Pure 42 Feuchttücher 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6636712</t>
+          <t>6996029</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Pampers Coconut Pure 42 Feuchttücher</t>
+          <t>Tela Lux 4-lagig 6 Rollen</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/pampers-coconut-pure-42-feuchttuecher/p/6636712</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-lux-4-lagig-6-rollen/p/6996029</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>42ST</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>2</v>
-      </c>
+          <t>6Rol</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
       <c r="F84" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>0.12/1ST</t>
+          <t>0.93/1Rol</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Pampers Coconut Pure 42 Feuchttücher 4.95 Schweizer Franken</t>
+          <t>Tela Lux 4-lagig 6 Rollen 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6996029</t>
+          <t>6727164</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Tela Lux 4-lagig 6 Rollen</t>
+          <t>Wetties Allzwecktücher 80Stück</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-lux-4-lagig-6-rollen/p/6996029</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/wetties-allzwecktuecher-80stueck/p/6727164</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>6Rol</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
+          <t>80ST</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>0.93/1Rol</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Tela Lux 4-lagig 6 Rollen 5.60 Schweizer Franken</t>
+          <t>Wetties Allzwecktücher 80Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6727164</t>
+          <t>6996129</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Wetties Allzwecktücher 80Stück</t>
+          <t>Tela Futura 3-lagig 9 Rollen</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/wetties-allzwecktuecher-80stueck/p/6727164</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-futura-3-lagig-9-rollen/p/6996129</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>80ST</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>1</v>
-      </c>
+          <t>9Rol</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
       <c r="F86" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>0.05/1ST</t>
+          <t>0.93/1Rol</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Wetties Allzwecktücher 80Stück 3.95 Schweizer Franken</t>
+          <t>Tela Futura 3-lagig 9 Rollen 8.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-08-01 07:04:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>6996129</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Tela Futura 3-lagig 9 Rollen</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-futura-3-lagig-9-rollen/p/6996129</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>9Rol</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="n">
-        <v>0</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Tela</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>0.93/1Rol</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Rolle</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>1Rol</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>Tela Futura 3-lagig 9 Rollen 8.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>2022-08-01 07:04:45</t>
+          <t>2022-08-01 20:59:40</t>
         </is>
       </c>
     </row>
